--- a/biology/Botanique/Brocchinia_micrantha/Brocchinia_micrantha.xlsx
+++ b/biology/Botanique/Brocchinia_micrantha/Brocchinia_micrantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brocchinia micrantha est une espèce de plantes à fleurs de la famille des Bromeliaceae, originaire d'Amérique du Sud.
 </t>
@@ -511,12 +523,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Brocchinia andreana Baker[1]
-Brocchinia cordylinoides Baker[2]
-Brocchinia demerarensis Baker[3]
-Cordyline micrantha Baker[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Brocchinia andreana Baker
+Brocchinia cordylinoides Baker
+Brocchinia demerarensis Baker
+Cordyline micrantha Baker</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La diagnose a été publiée par le botaniste Carl Christian Mez en 1894 dans Flora Brasiliensis 3.
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Brocchinia micrantha est une espèce géante de Bromeliaceae mesurant environ 5 mètres de hauteur et jusqu'à 8 mètres avec l'inflorescence[GS 1]. Les feuilles sont disposées en rosette et le centre de la plante peut contenir plusieurs litres d'eau[GS 1]. Les feuilles peuvent mesurer jusqu'à 1,20 mètre de longueur et de 15 à 35 centimètres de largeur[GS 1].
 </t>
@@ -608,10 +626,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre au Guyana et au Venezuela[GS 1].
-Habitat
-L'espèce se rencontre entre 500 et 1 200 mètres d'altitude dans les forêts de nuage dans le sud-est du Venezuela et les régions avoisinantes du Guyana et croît sur et dans les aspérités des grès[GS 1]. Elle partage le même type d'habitat que Brocchinia paniculata qui se rencontre entre 200 et 1 500 mètres d'altitude à cheval sur le Venezuela et la Colombie[GS 1].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre au Guyana et au Venezuela[GS 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brocchinia_micrantha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brocchinia_micrantha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre entre 500 et 1 200 mètres d'altitude dans les forêts de nuage dans le sud-est du Venezuela et les régions avoisinantes du Guyana et croît sur et dans les aspérités des grès[GS 1]. Elle partage le même type d'habitat que Brocchinia paniculata qui se rencontre entre 200 et 1 500 mètres d'altitude à cheval sur le Venezuela et la Colombie[GS 1].
 </t>
         </is>
       </c>
